--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -134,7 +136,7 @@
     <t>中央财政补贴</t>
   </si>
   <si>
-    <t>当年政府债务金额（单位：亿）</t>
+    <t>当年政府债务金额</t>
   </si>
   <si>
     <t>政府年财政支出</t>
@@ -649,162 +651,161 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -858,7 +859,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -868,9 +869,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="WPS">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -878,39 +879,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4874CB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="EE822F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="F2BA02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="75BD42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="30C0B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="WPS">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,6 +943,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -976,171 +978,135 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="WPS">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumOff val="17500"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:hueOff val="-2520000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="phClr">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="phClr"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="2700000" scaled="1"/>
+          </a:gradFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="phClr">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1152,426 +1118,185 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR7"/>
+  <dimension ref="A1:AR1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:44">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:44">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:44">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-    </row>
-    <row r="3" spans="1:44">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-    </row>
-    <row r="4" spans="1:44">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-    </row>
-    <row r="5" spans="1:44">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-    </row>
-    <row r="6" spans="1:44">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-    </row>
-    <row r="7" spans="1:44">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>